--- a/static/it_asset_import_template.xlsx
+++ b/static/it_asset_import_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>列顺序不能修改，数据无需输入单位，导入前请将演示数据删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,7 +92,50 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">购入日期
+      <t xml:space="preserve">入库数量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（必填项）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东金刚玻璃科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thinpad x250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">入库日期
 </t>
     </r>
     <r>
@@ -126,34 +165,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">入库数量
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（必填项）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东金刚玻璃科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thinpad x250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔记本电脑</t>
+    <t>供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,15 +177,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0001</t>
+    <t>购置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -587,16 +595,15 @@
     <col min="1" max="1" width="33.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="14.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -607,8 +614,9 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -619,62 +627,68 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6">
+        <v>43485</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6">
-        <v>43485</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
